--- a/data/trans_dic/P2C_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R2-Estudios-trans_dic.xlsx
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,63%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,75%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,89%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,48%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,49%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,39%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,82%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,96%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,35%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,86%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,27%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,53%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>19,15; 24,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>36,52; 42,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>24,45; 30,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>15,07; 20,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>23,9; 28,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>40,44; 46,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>30,71; 36,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>23,76; 28,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>22,56; 26,42</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>39,72; 43,81</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>28,63; 33,43</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>20,7; 24,37</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,38%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,34%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,65%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,13%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,33%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,97%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,79%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,38%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,74%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,89%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,63%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,18%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>30,91; 35,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>45,8; 50,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>30,61; 34,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>8,07; 13,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>37,96; 42,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>55,4; 60,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>38,75; 43,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>15,13; 48,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>35,05; 38,48</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>51,23; 54,51</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>35,09; 38,24</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>12,63; 30,94</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,29%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,59%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,86%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,42%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,44%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,04%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,8%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,6%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,69%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,84%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,76%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>26,09; 34,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>35,99; 45,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>26,7; 34,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>7,74; 13,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>33,21; 41,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>46,18; 56,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>36,4; 45,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>9,03; 13,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>30,53; 36,53</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>42,16; 49,67</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>32,67; 38,61</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>9,14; 12,66</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,16%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,8%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,3%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,94%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,53%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,59%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,83%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,7%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,89%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,26%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,15%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,96%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>27,69; 30,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>43,06; 46,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>29,74; 32,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>9,33; 13,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>32,84; 36,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>49,88; 53,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>37,22; 40,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>16,56; 40,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>30,74; 33,06</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>47,0; 49,46</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>34,11; 36,33</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>14,04; 26,36</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2C_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R2-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,15; 24,05</t>
+          <t>19,11; 24,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>36,52; 42,94</t>
+          <t>36,59; 43,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,45; 30,94</t>
+          <t>25,03; 31,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,07; 20,56</t>
+          <t>14,84; 20,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,9; 28,85</t>
+          <t>24,28; 29,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>40,44; 46,04</t>
+          <t>40,57; 46,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>30,71; 36,94</t>
+          <t>30,97; 36,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>23,76; 28,67</t>
+          <t>23,85; 28,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,56; 26,42</t>
+          <t>22,52; 25,96</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>39,72; 43,81</t>
+          <t>39,7; 43,92</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>28,63; 33,43</t>
+          <t>28,97; 33,61</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>20,7; 24,37</t>
+          <t>20,7; 24,48</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>30,91; 35,64</t>
+          <t>31,13; 35,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>45,8; 50,41</t>
+          <t>45,89; 50,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>30,61; 34,83</t>
+          <t>30,66; 34,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,07; 13,06</t>
+          <t>7,99; 13,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>37,96; 42,76</t>
+          <t>37,93; 42,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>55,4; 60,31</t>
+          <t>55,51; 60,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>38,75; 43,11</t>
+          <t>38,44; 42,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,13; 48,45</t>
+          <t>14,93; 44,48</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>35,05; 38,48</t>
+          <t>35,08; 38,47</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>51,23; 54,51</t>
+          <t>51,3; 54,55</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>35,09; 38,24</t>
+          <t>35,26; 38,2</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,63; 30,94</t>
+          <t>12,66; 30,18</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>26,09; 34,48</t>
+          <t>26,24; 34,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>35,99; 45,49</t>
+          <t>35,88; 45,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>26,7; 34,9</t>
+          <t>26,66; 35,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,74; 13,19</t>
+          <t>7,85; 13,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>33,21; 41,79</t>
+          <t>33,42; 42,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>46,18; 56,18</t>
+          <t>46,22; 56,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>36,4; 45,05</t>
+          <t>36,76; 44,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,03; 13,3</t>
+          <t>9,08; 13,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>30,53; 36,53</t>
+          <t>30,68; 36,8</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>42,16; 49,67</t>
+          <t>42,09; 49,11</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>32,67; 38,61</t>
+          <t>33,09; 38,87</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,14; 12,66</t>
+          <t>9,13; 12,6</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>27,69; 30,79</t>
+          <t>27,44; 30,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>43,06; 46,6</t>
+          <t>42,94; 46,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,74; 32,93</t>
+          <t>29,73; 32,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,33; 13,46</t>
+          <t>9,29; 13,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>32,84; 36,14</t>
+          <t>32,87; 36,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>49,88; 53,35</t>
+          <t>49,94; 53,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>37,22; 40,71</t>
+          <t>37,13; 40,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,56; 40,68</t>
+          <t>16,58; 37,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>30,74; 33,06</t>
+          <t>30,68; 32,91</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>47,0; 49,46</t>
+          <t>46,99; 49,39</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>34,11; 36,33</t>
+          <t>34,05; 36,39</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,04; 26,36</t>
+          <t>14,03; 25,99</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con al menos un miembro que requiere cuidados y estos son no remunerados</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>536</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>521</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>223133</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>387440</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>210411</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>90034</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>348329</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>580534</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>336423</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>196162</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>571462</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>967974</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>546834</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>286196</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>197199; 249049</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>356617; 420238</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>188811; 236198</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>76399; 107019</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>319343; 383110</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>542731; 618945</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>308008; 367595</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>180178; 214080</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>528403; 609244</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>918087; 1015536</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>506726; 587853</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>263002; 310958</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>548</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>905</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>640</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>955</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>796</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>457</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1168</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1860</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1436</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>727</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>565256</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>949279</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>677979</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>254803</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>640247</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1019076</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>811117</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>523245</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1205503</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1968355</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1489096</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>778048</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>527150; 606385</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>901167; 989244</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>636539; 721259</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>183098; 302500</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>602168; 681407</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>975761; 1060277</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>764354; 853021</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>334101; 995450</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1151134; 1262365</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1909315; 2030316</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1433012; 1552597</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>573269; 1366589</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>167044</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>195287</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>168745</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>67394</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>178348</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>234067</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>224023</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>73295</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>345392</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>429355</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>392769</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>140689</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>144712; 188940</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>172668; 219146</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>145804; 191698</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>50749; 86480</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>159195; 202074</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>211986; 258900</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>201861; 246018</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>59984; 87341</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>315354; 378215</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>395531; 461576</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>362675; 426007</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>119396; 164665</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>928</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1441</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1006</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1127</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1705</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1314</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>958</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2055</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>3146</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>2320</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1426</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>955433</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1532007</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1057135</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>412231</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1166924</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1833676</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1371564</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>792702</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>2122357</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>3365683</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>2428699</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1204933</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>899229; 1010203</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1468580; 1596940</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1004295; 1113235</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>320520; 463371</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1110807; 1218215</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1774871; 1894574</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1311423; 1431695</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>605770; 1353599</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>2042280; 2190236</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>3277086; 3444669</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>2352996; 2514661</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>996739; 1846447</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>